--- a/output/fit_clients/fit_round_281.xlsx
+++ b/output/fit_clients/fit_round_281.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1568913289.450263</v>
+        <v>2015246952.68786</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07547205034146394</v>
+        <v>0.09499055232291359</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02791507473739211</v>
+        <v>0.03260965593477604</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>784456582.4418124</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1871235924.854876</v>
+        <v>2620227172.799118</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1521432483140684</v>
+        <v>0.1562436121721788</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03539996697977895</v>
+        <v>0.03517398383893895</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>935617982.5416172</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4106934296.771563</v>
+        <v>3659743967.974111</v>
       </c>
       <c r="F4" t="n">
-        <v>0.126705201451136</v>
+        <v>0.1080330089043474</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02404531237724009</v>
+        <v>0.02812723244487415</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>102</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2053467170.135941</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3339529543.45436</v>
+        <v>3378314630.619918</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0757249636372319</v>
+        <v>0.08460916233197058</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04507121018054864</v>
+        <v>0.04258176907308096</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>109</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1669764819.088832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2446332579.966669</v>
+        <v>2679650634.852222</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1292397475367268</v>
+        <v>0.1161607355345462</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04841865139526223</v>
+        <v>0.03662246260063699</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>51</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1223166271.273967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2348468392.987972</v>
+        <v>1983040890.042538</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09720285013706526</v>
+        <v>0.07510288853124462</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03074293082507748</v>
+        <v>0.03189374012837456</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>87</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1174234224.111236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2721940266.260143</v>
+        <v>3723675864.045655</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1343344791962636</v>
+        <v>0.2064256831110512</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02999373340371438</v>
+        <v>0.02031316564381834</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>90</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1360970162.212342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1693623874.083584</v>
+        <v>2032590375.853822</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1588401474970085</v>
+        <v>0.1870034084145817</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03236233091474949</v>
+        <v>0.02453394802963291</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>846812006.1492444</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3672968862.071819</v>
+        <v>4097187628.379978</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1983393149049465</v>
+        <v>0.20505710744617</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04595465603873317</v>
+        <v>0.0443213168021708</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>119</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1836484427.629477</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3439282591.57585</v>
+        <v>3155242792.710179</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1158920570829781</v>
+        <v>0.1300884267351326</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04420188287435611</v>
+        <v>0.04556939345191142</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>116</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1719641269.366767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2119779424.179038</v>
+        <v>2988034980.236475</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1261733461100468</v>
+        <v>0.1206882529435499</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05052383041333196</v>
+        <v>0.03916475551442658</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>96</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1059889649.477903</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4397077683.866797</v>
+        <v>3253646184.830402</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07123770904397103</v>
+        <v>0.07975029376770913</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02039304967038767</v>
+        <v>0.02593458253123171</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>94</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2198538876.691599</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3251794857.332539</v>
+        <v>2496254735.76052</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1190952801646288</v>
+        <v>0.1483302183764488</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04355472215179741</v>
+        <v>0.04235731249402951</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1625897444.871271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1795059730.678352</v>
+        <v>1140389633.519111</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08403678567236421</v>
+        <v>0.08347789123094719</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03001819345777681</v>
+        <v>0.04041063543674756</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>897530017.730489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2511459979.817931</v>
+        <v>1746852474.08564</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1141550622191802</v>
+        <v>0.1160431674727642</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03475571974781331</v>
+        <v>0.03318718071010294</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>54</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1255730019.69552</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3621289247.286005</v>
+        <v>5244212925.764102</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1617121284205729</v>
+        <v>0.1621694270167374</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04434369481455259</v>
+        <v>0.04040823277193679</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>82</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1810644676.981032</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2884975401.217442</v>
+        <v>2622708600.224988</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1496142279791252</v>
+        <v>0.1187093985857562</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03410751837605191</v>
+        <v>0.02584368941446063</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>92</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1442487739.171658</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1212384138.462686</v>
+        <v>1013538731.239566</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1854777663090987</v>
+        <v>0.1571815564595315</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01965792739342264</v>
+        <v>0.01740655063244235</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>606192150.1676419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1772429566.65535</v>
+        <v>2098510196.069795</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1335901401785886</v>
+        <v>0.1377432481063954</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02441487192848134</v>
+        <v>0.01987283847210805</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>886214833.8962321</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2598166613.897773</v>
+        <v>2582176750.950703</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08928410183889084</v>
+        <v>0.09316640797717744</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04414282165410704</v>
+        <v>0.03131816053975153</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1299083285.683054</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2970636676.350198</v>
+        <v>2479292499.244962</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1195070482935114</v>
+        <v>0.09315428477404357</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04869923526879036</v>
+        <v>0.0382929753888645</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>78</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1485318401.465405</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>979887494.5891961</v>
+        <v>1188009659.384097</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1707698697535704</v>
+        <v>0.1585171680744718</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0548712174265801</v>
+        <v>0.05278930961908509</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>489943820.8539928</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3889380440.034314</v>
+        <v>4043015523.57191</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1169360424965343</v>
+        <v>0.101600017770013</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02417124946573971</v>
+        <v>0.03408290007474834</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>82</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1944690195.430772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1412616357.632041</v>
+        <v>1271635774.78513</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08591325824239825</v>
+        <v>0.09822360879402493</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02679927752144057</v>
+        <v>0.02728486214354002</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>706308147.8571376</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1177725095.880491</v>
+        <v>925300707.2036943</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08188060662133359</v>
+        <v>0.1205613438641631</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02747584957388741</v>
+        <v>0.02574112435601843</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>588862563.5040693</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4692027798.84902</v>
+        <v>3227168017.025985</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1559639714118609</v>
+        <v>0.09613949927536182</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02122461652276896</v>
+        <v>0.02207522608868176</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2346013875.203182</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2503958741.430872</v>
+        <v>3451947046.712542</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1488568754594355</v>
+        <v>0.1373499717191202</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03540201824266798</v>
+        <v>0.03914804743325098</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>91</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1251979338.864053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5248947834.974555</v>
+        <v>5868222664.596352</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1507631583249001</v>
+        <v>0.1174995563368109</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03294872506399574</v>
+        <v>0.04256693069960725</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>124</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2624473847.79965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1679786142.255105</v>
+        <v>2163943216.069016</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09139758020434512</v>
+        <v>0.1365036821342294</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03367285438020697</v>
+        <v>0.03275394064211013</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>839893072.1511074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1261004322.470677</v>
+        <v>1485905330.236667</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07201777108018961</v>
+        <v>0.09674170951929974</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04707695302164548</v>
+        <v>0.04625620715265333</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>630502098.3280593</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1338532289.71659</v>
+        <v>1297776418.234746</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09851429250007664</v>
+        <v>0.1107071736075071</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03525718773986598</v>
+        <v>0.03101417984599155</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>669266179.7393222</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3059330684.606862</v>
+        <v>2056271896.308781</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1715080635733968</v>
+        <v>0.1609891702031642</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04332596956381257</v>
+        <v>0.04482169835481082</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>86</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1529665332.902482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1245256948.062182</v>
+        <v>1124379112.008061</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1046121401619561</v>
+        <v>0.09999040225134026</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01929131899242402</v>
+        <v>0.01835677487169075</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>622628471.7078631</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1361423197.078914</v>
+        <v>908711355.7759041</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07175483819602567</v>
+        <v>0.078873808417942</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0364460933897561</v>
+        <v>0.04099881333849661</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>680711537.8634646</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3050946730.581539</v>
+        <v>2788256683.799357</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1091433872891622</v>
+        <v>0.1643752397452135</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01958363523032322</v>
+        <v>0.02864267595404024</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>70</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1525473343.140741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2648253977.738531</v>
+        <v>1796315495.24747</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07533501422420558</v>
+        <v>0.09661697602615252</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03190944955001247</v>
+        <v>0.0303970732075979</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>75</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1324127105.305371</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1562880840.281725</v>
+        <v>2083047005.371123</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08776124188044042</v>
+        <v>0.1125424006348202</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03684796728098046</v>
+        <v>0.03194668944442473</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>781440460.5103114</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1740744812.017197</v>
+        <v>1416806375.192702</v>
       </c>
       <c r="F39" t="n">
-        <v>0.131994018444047</v>
+        <v>0.1682918009385601</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02884909365204603</v>
+        <v>0.03085135121521246</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>870372439.9035389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1099879467.7213</v>
+        <v>1245505301.264396</v>
       </c>
       <c r="F40" t="n">
-        <v>0.110021225631754</v>
+        <v>0.1054344512908473</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04649193765809626</v>
+        <v>0.05556169552905661</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>549939800.220318</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2429263711.082569</v>
+        <v>2378137460.455246</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1340166294494326</v>
+        <v>0.1043302687227422</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03629960039537843</v>
+        <v>0.02851228472795436</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>69</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1214631887.708259</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3561300746.720669</v>
+        <v>2647399671.336656</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1215700528974482</v>
+        <v>0.1100148467410294</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03439907978179017</v>
+        <v>0.03449067509289803</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1780650372.428696</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2595630588.110731</v>
+        <v>1868461108.268865</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1476410833163821</v>
+        <v>0.1752198111302837</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0255540436418027</v>
+        <v>0.01712142013073482</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>103</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1297815333.086731</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1715747850.027023</v>
+        <v>1500304395.588317</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08599145069785828</v>
+        <v>0.07373424492610783</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02836890303939781</v>
+        <v>0.03604908840097144</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>857873974.6303908</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2031055740.191591</v>
+        <v>1591952737.869623</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1676479454694332</v>
+        <v>0.1223144270609371</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04426503452588009</v>
+        <v>0.04376696546593898</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1015527864.077228</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3494096489.28282</v>
+        <v>5495123027.706666</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1374636393722349</v>
+        <v>0.1125961834749393</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04153945228312183</v>
+        <v>0.05857778955038933</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>100</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1747048185.219487</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4122354846.22612</v>
+        <v>4956146220.5242</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1401245083280173</v>
+        <v>0.1828170179318997</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04856185160484067</v>
+        <v>0.05366232852233983</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>75</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2061177429.184547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3288977468.557179</v>
+        <v>3332001819.61456</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08818725300924456</v>
+        <v>0.09366791189690854</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02367930276754686</v>
+        <v>0.03545048767898275</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1644488809.955419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1570378990.223072</v>
+        <v>1757434109.314178</v>
       </c>
       <c r="F49" t="n">
-        <v>0.142012651156988</v>
+        <v>0.1200757346529138</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03453493684243359</v>
+        <v>0.03233471852317966</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>785189516.1926661</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3722805851.332026</v>
+        <v>3338428428.962688</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1144454963641417</v>
+        <v>0.136842481216722</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05214601524000296</v>
+        <v>0.0473003386269152</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>96</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1861402934.073642</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1537725845.723866</v>
+        <v>1516623129.135295</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1519292225622643</v>
+        <v>0.1835140841048044</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04636794598667311</v>
+        <v>0.04771687545045308</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>768862919.6690526</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3558677803.120173</v>
+        <v>4374456773.289617</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1283168364774149</v>
+        <v>0.1224935067133734</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04409689796228556</v>
+        <v>0.0394216099599955</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>116</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1779338984.01441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3694167772.714972</v>
+        <v>3707680719.067665</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1296600893056562</v>
+        <v>0.1658270454098284</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03107749129795135</v>
+        <v>0.0309824576662256</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>81</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1847083870.873938</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4173851666.128285</v>
+        <v>4198823564.160732</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1431547157748631</v>
+        <v>0.1050310569935219</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04530327230424683</v>
+        <v>0.04341943987364329</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>91</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2086925910.795092</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3038941826.098006</v>
+        <v>3338258000.271303</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2158513013651391</v>
+        <v>0.216973592233426</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02180390607089697</v>
+        <v>0.02785188143749771</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1519470845.541538</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1383958762.263326</v>
+        <v>1146018565.144705</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1247212920708612</v>
+        <v>0.1245349451646621</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04420096274432563</v>
+        <v>0.05438114952479826</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>691979440.5531654</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3933997189.043732</v>
+        <v>3563568558.902714</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1799722217974277</v>
+        <v>0.1625922138509674</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01843218745744852</v>
+        <v>0.01995043904140795</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>89</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1966998677.346999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1861229571.211707</v>
+        <v>1346341094.137862</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1948860338558409</v>
+        <v>0.1241043719457191</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03829997392240903</v>
+        <v>0.02541684878488855</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>930614783.7912873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3715885419.772448</v>
+        <v>4725119509.772115</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08059246468042483</v>
+        <v>0.08675733358538235</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04502637823844374</v>
+        <v>0.03856765415511262</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1857942699.546463</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3558125956.044926</v>
+        <v>3176173544.676617</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1409751539583813</v>
+        <v>0.1770789662292239</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02950645421094193</v>
+        <v>0.03336129576077196</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>89</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1779063106.915055</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2084204047.346457</v>
+        <v>2736419787.094557</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1776400315462119</v>
+        <v>0.1458175208256688</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02869114892745211</v>
+        <v>0.03020865878994994</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>97</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1042102090.49658</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1560396607.988855</v>
+        <v>1845346771.417703</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1355663217810631</v>
+        <v>0.1725401016038466</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04223012067087987</v>
+        <v>0.0439858470645603</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>780198296.0815148</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4568463173.332414</v>
+        <v>4291340917.501393</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08212754114043257</v>
+        <v>0.1078027299889127</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04135299083841308</v>
+        <v>0.04695973925912447</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>82</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2284231623.683668</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3945744586.049232</v>
+        <v>5267295416.016115</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1222945540005111</v>
+        <v>0.1380290914357676</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02354929055495753</v>
+        <v>0.02992196226411914</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>88</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1972872325.058573</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4555009749.725471</v>
+        <v>4491636310.270704</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1592403752147047</v>
+        <v>0.1110113801870228</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03023428718304419</v>
+        <v>0.02956713207570617</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>101</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2277504860.323183</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5226008854.869779</v>
+        <v>3588317148.99772</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1405713090543454</v>
+        <v>0.09922150690798894</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03498299879544653</v>
+        <v>0.043372620861118</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>82</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2613004466.676138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2805825126.565926</v>
+        <v>3241076147.286687</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07270828068961761</v>
+        <v>0.07666775815406614</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03975882485298492</v>
+        <v>0.03386738290940416</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>89</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1402912597.988842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4574428164.237157</v>
+        <v>4921007911.888058</v>
       </c>
       <c r="F68" t="n">
-        <v>0.157536620016481</v>
+        <v>0.1415465410829135</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04540652070169148</v>
+        <v>0.04877255522605003</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>92</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2287214112.715128</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2449986669.597063</v>
+        <v>2008126080.617297</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1407353616560705</v>
+        <v>0.1107934733706979</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05035052878262894</v>
+        <v>0.05009334911490147</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1224993397.914041</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3331079564.583297</v>
+        <v>2976504011.778146</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1014166911692168</v>
+        <v>0.06420920863950763</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03104471758387393</v>
+        <v>0.03957738620054241</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>80</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1665539780.786581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3591985980.779413</v>
+        <v>5126450848.700333</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1202566801315357</v>
+        <v>0.1276909088611598</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02075117440059863</v>
+        <v>0.02644240939038837</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>104</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1795992990.980228</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1518515960.527464</v>
+        <v>1405871026.475671</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08456074093949889</v>
+        <v>0.08078105852561039</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04928021044740018</v>
+        <v>0.03940094432926711</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>759258004.2721982</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2666959617.704829</v>
+        <v>2957289733.71156</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07468394377847908</v>
+        <v>0.1125823315208154</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04492448377230805</v>
+        <v>0.03507279180137608</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>107</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1333479835.340223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3793263975.399528</v>
+        <v>3707246123.257772</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1384729969057879</v>
+        <v>0.1234994595306526</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02774970530558864</v>
+        <v>0.02204856437576548</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>95</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1896631984.483747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2058866532.861547</v>
+        <v>1548795472.160831</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1292590944453253</v>
+        <v>0.1460559256602162</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02594311140449641</v>
+        <v>0.03624937823444319</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1029433225.095688</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3283381019.524057</v>
+        <v>3461942858.02723</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1003393972365154</v>
+        <v>0.12363026428302</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02506984397306151</v>
+        <v>0.02827093908254531</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1641690464.45505</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2062091154.074502</v>
+        <v>1785304709.296159</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1635995273354231</v>
+        <v>0.1500722365111579</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02791731329980502</v>
+        <v>0.02858123087486547</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1031045647.723144</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4406570408.769944</v>
+        <v>3520759480.240389</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1304543338761032</v>
+        <v>0.1262841662095523</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03848376485404648</v>
+        <v>0.04283903905686232</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>98</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2203285140.992152</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1308212182.78632</v>
+        <v>1659086017.084678</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1452595762721501</v>
+        <v>0.1568204266302374</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03652175379156949</v>
+        <v>0.03124388868637139</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>654106092.0661241</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3595747439.392454</v>
+        <v>3384806372.728339</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07250758518912924</v>
+        <v>0.09986845600983678</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03638111590216434</v>
+        <v>0.03491878249628591</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>60</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1797873699.052621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4053415143.592199</v>
+        <v>4753830853.88209</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09387353202589896</v>
+        <v>0.08987424287868788</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02241700142966932</v>
+        <v>0.03229499800486035</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2026707537.000589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3498884085.767989</v>
+        <v>5108132943.994381</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1505751134537051</v>
+        <v>0.2024893371250331</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02281498620257736</v>
+        <v>0.02148101133596841</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>99</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1749442110.61971</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2160451051.211372</v>
+        <v>2469614992.838102</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1575732154607709</v>
+        <v>0.1130153439611359</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04040529168924816</v>
+        <v>0.03289905315187733</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1080225530.905173</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1585102075.136692</v>
+        <v>2341781174.027338</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08485044129962438</v>
+        <v>0.07526315235553988</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03687977924544997</v>
+        <v>0.04508066193974665</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>792551103.3218468</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2575394720.755487</v>
+        <v>3402152312.23946</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1403771453410142</v>
+        <v>0.1368380033918826</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04571172515853711</v>
+        <v>0.03691550217693798</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>106</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1287697373.641726</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2670034555.667637</v>
+        <v>2589231269.504501</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1379523305300037</v>
+        <v>0.1378280438144734</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02286872443648353</v>
+        <v>0.01695310123924131</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1335017398.638872</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1433300643.378569</v>
+        <v>1044477617.70562</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1733771256992743</v>
+        <v>0.1604843417233035</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02876039921038982</v>
+        <v>0.04023742751364798</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>716650437.0593575</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2763726948.195718</v>
+        <v>2701560373.410416</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1654317498131192</v>
+        <v>0.1146434472089075</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03597901702056173</v>
+        <v>0.03785708194084854</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>111</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1381863481.204174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2912669429.681638</v>
+        <v>3158732836.863158</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1194917100619723</v>
+        <v>0.1402536486506574</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03741814638532968</v>
+        <v>0.03041498647859711</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>96</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1456334759.340262</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2022117147.752449</v>
+        <v>2005560440.818364</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1301973986577312</v>
+        <v>0.1068113307939969</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05065736616010679</v>
+        <v>0.05651253153065918</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1011058648.202307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1344516674.726914</v>
+        <v>1336202711.681033</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1869547501908375</v>
+        <v>0.1443507072999715</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05229177992779447</v>
+        <v>0.0406595852468476</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>672258397.0072964</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2054757276.166905</v>
+        <v>2932866029.921804</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1079326864651799</v>
+        <v>0.08797814988716229</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04721968780135378</v>
+        <v>0.04571299990900431</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>71</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1027378588.389615</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4518238718.43921</v>
+        <v>4902633095.547508</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1261655825115229</v>
+        <v>0.1396637804809448</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05373221981515678</v>
+        <v>0.03394920280497105</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>86</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2259119326.325341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2489181558.90688</v>
+        <v>2074063087.513756</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1617327381721162</v>
+        <v>0.1505540111817614</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02721344104628161</v>
+        <v>0.03291561904496272</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1244590841.466864</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2607198889.843602</v>
+        <v>2238195096.179062</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09212536773791626</v>
+        <v>0.1065588931397731</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03601063894021814</v>
+        <v>0.04471381193117881</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>69</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1303599473.209248</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1488696978.003232</v>
+        <v>1569725787.848015</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1340926048415849</v>
+        <v>0.1418350225542491</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04495634502243383</v>
+        <v>0.04531421455308508</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>744348530.5541432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4000185701.620086</v>
+        <v>4574446936.343697</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1251962513899291</v>
+        <v>0.1365824205638305</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01799319201227861</v>
+        <v>0.02193462413199678</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>91</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2000092907.20119</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3208713188.938636</v>
+        <v>3338993140.116811</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08432679880433078</v>
+        <v>0.08400880536139102</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02238791831980257</v>
+        <v>0.02964212174907754</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1604356593.320657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2316752879.492492</v>
+        <v>2153799607.850185</v>
       </c>
       <c r="F99" t="n">
-        <v>0.113728897642465</v>
+        <v>0.1398213282490514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02222818533017394</v>
+        <v>0.02605803100688774</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>89</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1158376376.240045</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3927070984.597565</v>
+        <v>3199089772.809707</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1346482579227409</v>
+        <v>0.1328621979237037</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02454528483459225</v>
+        <v>0.02780563551640801</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>86</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1963535557.155509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3253283740.344541</v>
+        <v>2757373302.371866</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1604329538037873</v>
+        <v>0.1526885580074475</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05288653420487172</v>
+        <v>0.04273575568496161</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>112</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1626641992.673739</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_281.xlsx
+++ b/output/fit_clients/fit_round_281.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2015246952.68786</v>
+        <v>2180644010.240052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09499055232291359</v>
+        <v>0.07262143891783274</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03260965593477604</v>
+        <v>0.04522070453706128</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2620227172.799118</v>
+        <v>1827753802.640046</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1562436121721788</v>
+        <v>0.1396741933452696</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03517398383893895</v>
+        <v>0.03429609586449698</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3659743967.974111</v>
+        <v>5027860752.296559</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1080330089043474</v>
+        <v>0.1173879864171237</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02812723244487415</v>
+        <v>0.02654815090408342</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3378314630.619918</v>
+        <v>2782631940.759908</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08460916233197058</v>
+        <v>0.1044538173769672</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04258176907308096</v>
+        <v>0.03400676988035729</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2679650634.852222</v>
+        <v>2458695000.533596</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1161607355345462</v>
+        <v>0.1300877498982639</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03662246260063699</v>
+        <v>0.04677845354176891</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1983040890.042538</v>
+        <v>2569598560.31438</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07510288853124462</v>
+        <v>0.09167483910009794</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03189374012837456</v>
+        <v>0.03221450838384372</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3723675864.045655</v>
+        <v>2691580082.028968</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2064256831110512</v>
+        <v>0.1884252755576902</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02031316564381834</v>
+        <v>0.02766915442726715</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2032590375.853822</v>
+        <v>1431176578.389337</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1870034084145817</v>
+        <v>0.1226037656270512</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02453394802963291</v>
+        <v>0.03493192034111706</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4097187628.379978</v>
+        <v>5888170665.744005</v>
       </c>
       <c r="F10" t="n">
-        <v>0.20505710744617</v>
+        <v>0.142828143999466</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0443213168021708</v>
+        <v>0.04042811525131084</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3155242792.710179</v>
+        <v>3873919823.067446</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1300884267351326</v>
+        <v>0.1632951250165836</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04556939345191142</v>
+        <v>0.03736016449061143</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2988034980.236475</v>
+        <v>3066456662.83057</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1206882529435499</v>
+        <v>0.1452302050278223</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03916475551442658</v>
+        <v>0.05291918759233947</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3253646184.830402</v>
+        <v>4688806602.377232</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07975029376770913</v>
+        <v>0.09955999188251752</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02593458253123171</v>
+        <v>0.02448198393668024</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2496254735.76052</v>
+        <v>3590710025.25542</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1483302183764488</v>
+        <v>0.136717722317897</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04235731249402951</v>
+        <v>0.04162383888203058</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1140389633.519111</v>
+        <v>1691740375.69878</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08347789123094719</v>
+        <v>0.06621799912052696</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04041063543674756</v>
+        <v>0.04109047266554407</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1746852474.08564</v>
+        <v>2066380221.352789</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1160431674727642</v>
+        <v>0.09855407718046147</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03318718071010294</v>
+        <v>0.04544401140874112</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5244212925.764102</v>
+        <v>4145468502.849508</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1621694270167374</v>
+        <v>0.1369718727253204</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04040823277193679</v>
+        <v>0.04711744116712573</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2622708600.224988</v>
+        <v>2765659891.993272</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1187093985857562</v>
+        <v>0.1465115272291004</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02584368941446063</v>
+        <v>0.0323185298746204</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1013538731.239566</v>
+        <v>1036873476.977773</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1571815564595315</v>
+        <v>0.1341794384462094</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01740655063244235</v>
+        <v>0.01985307812087178</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2098510196.069795</v>
+        <v>2646088929.315006</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1377432481063954</v>
+        <v>0.1598100616305206</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01987283847210805</v>
+        <v>0.02575290052717527</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2582176750.950703</v>
+        <v>2194342347.13349</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09316640797717744</v>
+        <v>0.08161042851372398</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03131816053975153</v>
+        <v>0.04173843231440144</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2479292499.244962</v>
+        <v>3611074299.766528</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09315428477404357</v>
+        <v>0.09128897965337676</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0382929753888645</v>
+        <v>0.05645456763646855</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1188009659.384097</v>
+        <v>1370297987.683441</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1585171680744718</v>
+        <v>0.182902147640419</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05278930961908509</v>
+        <v>0.04676957718921101</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4043015523.57191</v>
+        <v>2742656554.879481</v>
       </c>
       <c r="F24" t="n">
-        <v>0.101600017770013</v>
+        <v>0.1379672851521394</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03408290007474834</v>
+        <v>0.0301764381487983</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1271635774.78513</v>
+        <v>1242677035.508223</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09822360879402493</v>
+        <v>0.0778989363389061</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02728486214354002</v>
+        <v>0.02195189143944315</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>925300707.2036943</v>
+        <v>1016000367.297738</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1205613438641631</v>
+        <v>0.0886733589752689</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02574112435601843</v>
+        <v>0.03318783344038846</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3227168017.025985</v>
+        <v>4158330615.524983</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09613949927536182</v>
+        <v>0.1057839494145121</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02207522608868176</v>
+        <v>0.01976611560605496</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3451947046.712542</v>
+        <v>3738587952.153674</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1373499717191202</v>
+        <v>0.1051937689535515</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03914804743325098</v>
+        <v>0.04418431059036233</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5868222664.596352</v>
+        <v>5283196498.140985</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1174995563368109</v>
+        <v>0.09161600999543482</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04256693069960725</v>
+        <v>0.03380699728322249</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2163943216.069016</v>
+        <v>2344264189.791969</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1365036821342294</v>
+        <v>0.1010249456101142</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03275394064211013</v>
+        <v>0.03770413780582607</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1485905330.236667</v>
+        <v>1500301722.892813</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09674170951929974</v>
+        <v>0.1101276782361694</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04625620715265333</v>
+        <v>0.03516977906004336</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1297776418.234746</v>
+        <v>1621408063.143449</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1107071736075071</v>
+        <v>0.07370532686200766</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03101417984599155</v>
+        <v>0.02909152597088784</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2056271896.308781</v>
+        <v>2476160467.836417</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1609891702031642</v>
+        <v>0.2034799569831927</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04482169835481082</v>
+        <v>0.0416600626567156</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1124379112.008061</v>
+        <v>988463332.0182196</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09999040225134026</v>
+        <v>0.07832479503948214</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01835677487169075</v>
+        <v>0.01804214054924404</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>908711355.7759041</v>
+        <v>1206398048.111129</v>
       </c>
       <c r="F35" t="n">
-        <v>0.078873808417942</v>
+        <v>0.08415027988999739</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04099881333849661</v>
+        <v>0.03533676921744834</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2788256683.799357</v>
+        <v>2841642814.009408</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1643752397452135</v>
+        <v>0.1412892225560833</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02864267595404024</v>
+        <v>0.01961287587552137</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1796315495.24747</v>
+        <v>2162282751.451808</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09661697602615252</v>
+        <v>0.07622514243179926</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0303970732075979</v>
+        <v>0.04243095983179484</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2083047005.371123</v>
+        <v>1940421919.151777</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1125424006348202</v>
+        <v>0.1181016941564048</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03194668944442473</v>
+        <v>0.02496869275896585</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1416806375.192702</v>
+        <v>1970361364.854605</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1682918009385601</v>
+        <v>0.1262022298338932</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03085135121521246</v>
+        <v>0.03035703497900223</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1245505301.264396</v>
+        <v>1571474864.555476</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1054344512908473</v>
+        <v>0.1537823150144749</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05556169552905661</v>
+        <v>0.05194319172818475</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2378137460.455246</v>
+        <v>2541337778.318015</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1043302687227422</v>
+        <v>0.1385338598355404</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02851228472795436</v>
+        <v>0.0307871964110867</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2647399671.336656</v>
+        <v>3231495700.635533</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1100148467410294</v>
+        <v>0.1113043908975941</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03449067509289803</v>
+        <v>0.04554075432647935</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1868461108.268865</v>
+        <v>1936467671.304198</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1752198111302837</v>
+        <v>0.1264684202367159</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01712142013073482</v>
+        <v>0.02270297354903019</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1500304395.588317</v>
+        <v>1446281344.901904</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07373424492610783</v>
+        <v>0.06664433940510844</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03604908840097144</v>
+        <v>0.03493054339190555</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1591952737.869623</v>
+        <v>2318220095.727972</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1223144270609371</v>
+        <v>0.132388361682337</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04376696546593898</v>
+        <v>0.04002227991118222</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5495123027.706666</v>
+        <v>5451451060.339205</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1125961834749393</v>
+        <v>0.15069578767664</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05857778955038933</v>
+        <v>0.04098626587861938</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4956146220.5242</v>
+        <v>3357556865.524806</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1828170179318997</v>
+        <v>0.1791231885361245</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05366232852233983</v>
+        <v>0.04577296857020331</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3332001819.61456</v>
+        <v>3316148207.30749</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09366791189690854</v>
+        <v>0.08628058194284764</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03545048767898275</v>
+        <v>0.02546178224874334</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1757434109.314178</v>
+        <v>1512106435.128649</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1200757346529138</v>
+        <v>0.1791697070739734</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03233471852317966</v>
+        <v>0.02790903818653512</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3338428428.962688</v>
+        <v>2791238736.834408</v>
       </c>
       <c r="F50" t="n">
-        <v>0.136842481216722</v>
+        <v>0.1172099271255763</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0473003386269152</v>
+        <v>0.03505124454534451</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1516623129.135295</v>
+        <v>1308261572.23595</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1835140841048044</v>
+        <v>0.1941606539155107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04771687545045308</v>
+        <v>0.05222728197820729</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4374456773.289617</v>
+        <v>3339306525.029856</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1224935067133734</v>
+        <v>0.09651176877200374</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0394216099599955</v>
+        <v>0.0516620258715532</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3707680719.067665</v>
+        <v>3426197309.709089</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1658270454098284</v>
+        <v>0.1970199762702701</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0309824576662256</v>
+        <v>0.02511106850287555</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4198823564.160732</v>
+        <v>4688441159.858658</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1050310569935219</v>
+        <v>0.1343410002260647</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04341943987364329</v>
+        <v>0.04235670433970794</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3338258000.271303</v>
+        <v>4516250971.728964</v>
       </c>
       <c r="F55" t="n">
-        <v>0.216973592233426</v>
+        <v>0.1852918468720881</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02785188143749771</v>
+        <v>0.03008293238361419</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1146018565.144705</v>
+        <v>1357031141.531834</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1245349451646621</v>
+        <v>0.1414829302750454</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05438114952479826</v>
+        <v>0.05352443168527016</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3563568558.902714</v>
+        <v>3982879393.578131</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1625922138509674</v>
+        <v>0.1525137261704179</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01995043904140795</v>
+        <v>0.01830436071832896</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1346341094.137862</v>
+        <v>1389746323.884211</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1241043719457191</v>
+        <v>0.1999281411403841</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02541684878488855</v>
+        <v>0.03977300950926534</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4725119509.772115</v>
+        <v>3321230473.074969</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08675733358538235</v>
+        <v>0.1289025993286421</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03856765415511262</v>
+        <v>0.03091900635470507</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3176173544.676617</v>
+        <v>2299505993.316682</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1770789662292239</v>
+        <v>0.1400399271215597</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03336129576077196</v>
+        <v>0.0241705180649961</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2736419787.094557</v>
+        <v>2475179566.450205</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1458175208256688</v>
+        <v>0.1490012375678254</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03020865878994994</v>
+        <v>0.02732012820235384</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1845346771.417703</v>
+        <v>1386897810.600759</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1725401016038466</v>
+        <v>0.1413374738850612</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0439858470645603</v>
+        <v>0.04073066893422155</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4291340917.501393</v>
+        <v>3962408966.808077</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1078027299889127</v>
+        <v>0.09860012742516085</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04695973925912447</v>
+        <v>0.03652673360593655</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5267295416.016115</v>
+        <v>3718501898.906789</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1380290914357676</v>
+        <v>0.1429517256674324</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02992196226411914</v>
+        <v>0.02402860252243363</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4491636310.270704</v>
+        <v>3990012844.710753</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1110113801870228</v>
+        <v>0.1498820511719761</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02956713207570617</v>
+        <v>0.02414328689652285</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3588317148.99772</v>
+        <v>4601364599.374902</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09922150690798894</v>
+        <v>0.1449972986219541</v>
       </c>
       <c r="G66" t="n">
-        <v>0.043372620861118</v>
+        <v>0.03772528112139135</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3241076147.286687</v>
+        <v>2820148743.853722</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07666775815406614</v>
+        <v>0.07639775794308264</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03386738290940416</v>
+        <v>0.04431400024133454</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4921007911.888058</v>
+        <v>4371421869.697252</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1415465410829135</v>
+        <v>0.1144004103655626</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04877255522605003</v>
+        <v>0.05087840663246818</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2008126080.617297</v>
+        <v>2418707841.776361</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1107934733706979</v>
+        <v>0.1161331285372659</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05009334911490147</v>
+        <v>0.0460417775833656</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2976504011.778146</v>
+        <v>3473536970.087055</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06420920863950763</v>
+        <v>0.09699861107519299</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03957738620054241</v>
+        <v>0.03521509356710651</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5126450848.700333</v>
+        <v>4270167107.485895</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1276909088611598</v>
+        <v>0.1553479686952609</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02644240939038837</v>
+        <v>0.02954893413212818</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1405871026.475671</v>
+        <v>1979176258.434143</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08078105852561039</v>
+        <v>0.105799144773285</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03940094432926711</v>
+        <v>0.03977338646041391</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2957289733.71156</v>
+        <v>3434481061.307158</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1125823315208154</v>
+        <v>0.07896142344643974</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03507279180137608</v>
+        <v>0.04271151650169969</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3707246123.257772</v>
+        <v>2882111139.605002</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1234994595306526</v>
+        <v>0.1816795041028403</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02204856437576548</v>
+        <v>0.0314975506463824</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1548795472.160831</v>
+        <v>2056085856.072921</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1460559256602162</v>
+        <v>0.1086571118451513</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03624937823444319</v>
+        <v>0.02549057383349925</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3461942858.02723</v>
+        <v>4835887832.20208</v>
       </c>
       <c r="F76" t="n">
-        <v>0.12363026428302</v>
+        <v>0.1052435178815599</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02827093908254531</v>
+        <v>0.02775802662099626</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1785304709.296159</v>
+        <v>1404704406.183592</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1500722365111579</v>
+        <v>0.1378796472499063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02858123087486547</v>
+        <v>0.03133723401956968</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3520759480.240389</v>
+        <v>3356552426.719434</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1262841662095523</v>
+        <v>0.1364358138156165</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04283903905686232</v>
+        <v>0.04847753847238141</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1659086017.084678</v>
+        <v>1900812528.155323</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1568204266302374</v>
+        <v>0.1421063182064328</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03124388868637139</v>
+        <v>0.03168271711067641</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3384806372.728339</v>
+        <v>4113697188.265309</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09986845600983678</v>
+        <v>0.1104202154413634</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03491878249628591</v>
+        <v>0.02927302987638447</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4753830853.88209</v>
+        <v>3491283637.147185</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08987424287868788</v>
+        <v>0.08753013132525447</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03229499800486035</v>
+        <v>0.02188511533970812</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5108132943.994381</v>
+        <v>4702349790.053654</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2024893371250331</v>
+        <v>0.1432046941612337</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02148101133596841</v>
+        <v>0.01820815073504106</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2469614992.838102</v>
+        <v>1986960697.149962</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1130153439611359</v>
+        <v>0.1110026257070032</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03289905315187733</v>
+        <v>0.03140655518012053</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2341781174.027338</v>
+        <v>2408349933.048351</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07526315235553988</v>
+        <v>0.09342223267052321</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04508066193974665</v>
+        <v>0.03258820118845328</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3402152312.23946</v>
+        <v>3030258692.203863</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1368380033918826</v>
+        <v>0.1428615892530066</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03691550217693798</v>
+        <v>0.05189177132232797</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2589231269.504501</v>
+        <v>2596790720.134252</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1378280438144734</v>
+        <v>0.1208607505477835</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01695310123924131</v>
+        <v>0.0193859730390315</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1044477617.70562</v>
+        <v>1079732828.722318</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1604843417233035</v>
+        <v>0.1557135217893763</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04023742751364798</v>
+        <v>0.03148932205127848</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2701560373.410416</v>
+        <v>2505846473.619334</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1146434472089075</v>
+        <v>0.1310677801014573</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03785708194084854</v>
+        <v>0.03734489268570808</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3158732836.863158</v>
+        <v>2537094895.243221</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1402536486506574</v>
+        <v>0.1008281105007164</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03041498647859711</v>
+        <v>0.03677013111762311</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2005560440.818364</v>
+        <v>1475681287.475506</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1068113307939969</v>
+        <v>0.1166694971661527</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05651253153065918</v>
+        <v>0.05502184617609295</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1336202711.681033</v>
+        <v>1811384467.427372</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1443507072999715</v>
+        <v>0.1230054276997286</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0406595852468476</v>
+        <v>0.0592396412777414</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2932866029.921804</v>
+        <v>1855166636.240352</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08797814988716229</v>
+        <v>0.08170606188454567</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04571299990900431</v>
+        <v>0.0290213212982012</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4902633095.547508</v>
+        <v>4353646276.816312</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1396637804809448</v>
+        <v>0.1387656406918995</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03394920280497105</v>
+        <v>0.0425115105795276</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2074063087.513756</v>
+        <v>2421920762.188921</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1505540111817614</v>
+        <v>0.1094096969339612</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03291561904496272</v>
+        <v>0.03049135624027627</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2238195096.179062</v>
+        <v>2018102665.127716</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1065588931397731</v>
+        <v>0.09042663611568028</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04471381193117881</v>
+        <v>0.04258263823575351</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1569725787.848015</v>
+        <v>2363933088.325976</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1418350225542491</v>
+        <v>0.1199912443959558</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04531421455308508</v>
+        <v>0.03651238489127152</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4574446936.343697</v>
+        <v>3523118107.750131</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1365824205638305</v>
+        <v>0.1406554932940359</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02193462413199678</v>
+        <v>0.02875031811574535</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3338993140.116811</v>
+        <v>3620900461.40474</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08400880536139102</v>
+        <v>0.1113313179557698</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02964212174907754</v>
+        <v>0.03030221812301286</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2153799607.850185</v>
+        <v>2086290090.864366</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1398213282490514</v>
+        <v>0.1093817399165972</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02605803100688774</v>
+        <v>0.02513048231030822</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3199089772.809707</v>
+        <v>3552306394.346672</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1328621979237037</v>
+        <v>0.1665219884407258</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02780563551640801</v>
+        <v>0.02512373155124193</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2757373302.371866</v>
+        <v>3515415014.203355</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1526885580074475</v>
+        <v>0.215585985710478</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04273575568496161</v>
+        <v>0.04696138940747721</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_281.xlsx
+++ b/output/fit_clients/fit_round_281.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2180644010.240052</v>
+        <v>2380318608.482309</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07262143891783274</v>
+        <v>0.08293849024803809</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04522070453706128</v>
+        <v>0.04034678969202144</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1827753802.640046</v>
+        <v>1909902951.318808</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1396741933452696</v>
+        <v>0.1562731881351559</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03429609586449698</v>
+        <v>0.04221060048544537</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5027860752.296559</v>
+        <v>3409041100.230338</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1173879864171237</v>
+        <v>0.1224089950232019</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02654815090408342</v>
+        <v>0.02453343942594646</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J4" t="n">
+        <v>280</v>
+      </c>
+      <c r="K4" t="n">
+        <v>69.84099006910326</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2782631940.759908</v>
+        <v>2672609459.230524</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1044538173769672</v>
+        <v>0.1022997702198133</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03400676988035729</v>
+        <v>0.04228479902159663</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>113</v>
+      </c>
+      <c r="J5" t="n">
+        <v>279</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2458695000.533596</v>
+        <v>1814742980.592432</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1300877498982639</v>
+        <v>0.1174777194131602</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04677845354176891</v>
+        <v>0.05020637054811283</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2569598560.31438</v>
+        <v>2005591602.994915</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09167483910009794</v>
+        <v>0.09405816190088635</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03221450838384372</v>
+        <v>0.03464911548897813</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2691580082.028968</v>
+        <v>3234436589.940461</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1884252755576902</v>
+        <v>0.2115018598706582</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02766915442726715</v>
+        <v>0.03182557886168094</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>74</v>
+      </c>
+      <c r="J8" t="n">
+        <v>279</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1431176578.389337</v>
+        <v>2226563123.82015</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1226037656270512</v>
+        <v>0.1533927970511422</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03493192034111706</v>
+        <v>0.02346639696440336</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5888170665.744005</v>
+        <v>3877610509.910783</v>
       </c>
       <c r="F10" t="n">
-        <v>0.142828143999466</v>
+        <v>0.1529589976018205</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04042811525131084</v>
+        <v>0.05316147621298107</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>252</v>
+      </c>
+      <c r="J10" t="n">
+        <v>281</v>
+      </c>
+      <c r="K10" t="n">
+        <v>92.8758375445926</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3873919823.067446</v>
+        <v>3612985639.045066</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1632951250165836</v>
+        <v>0.172598624794468</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03736016449061143</v>
+        <v>0.04638227902985455</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>112</v>
+      </c>
+      <c r="J11" t="n">
+        <v>281</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3066456662.83057</v>
+        <v>2188243053.788257</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1452302050278223</v>
+        <v>0.123168946550995</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05291918759233947</v>
+        <v>0.05208683333595304</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4688806602.377232</v>
+        <v>5188488920.960683</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09955999188251752</v>
+        <v>0.07054000310180933</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02448198393668024</v>
+        <v>0.02544312616391102</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>143</v>
+      </c>
+      <c r="J13" t="n">
+        <v>281</v>
+      </c>
+      <c r="K13" t="n">
+        <v>92.94833405965349</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3590710025.25542</v>
+        <v>2540120392.865448</v>
       </c>
       <c r="F14" t="n">
-        <v>0.136717722317897</v>
+        <v>0.1409294252861361</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04162383888203058</v>
+        <v>0.03905516732858224</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>57</v>
+      </c>
+      <c r="J14" t="n">
+        <v>276</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1691740375.69878</v>
+        <v>1355548204.263498</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06621799912052696</v>
+        <v>0.07798839446580359</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04109047266554407</v>
+        <v>0.04535685926461702</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2066380221.352789</v>
+        <v>2460885899.939096</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09855407718046147</v>
+        <v>0.07000985388569443</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04544401140874112</v>
+        <v>0.03440844646448449</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4145468502.849508</v>
+        <v>3774437754.167262</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1369718727253204</v>
+        <v>0.114224897572836</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04711744116712573</v>
+        <v>0.0522558675803977</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>134</v>
+      </c>
+      <c r="J17" t="n">
+        <v>281</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2765659891.993272</v>
+        <v>2874658827.369584</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1465115272291004</v>
+        <v>0.1288686792888574</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0323185298746204</v>
+        <v>0.02106696066869894</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>71</v>
+      </c>
+      <c r="J18" t="n">
+        <v>275</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1036873476.977773</v>
+        <v>1320559208.849773</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1341794384462094</v>
+        <v>0.1542351177602338</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01985307812087178</v>
+        <v>0.02126395755826663</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2646088929.315006</v>
+        <v>2291421774.752174</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1598100616305206</v>
+        <v>0.1130576201480011</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02575290052717527</v>
+        <v>0.02175687089975585</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2194342347.13349</v>
+        <v>2227774920.243987</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08161042851372398</v>
+        <v>0.06627224686445526</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04173843231440144</v>
+        <v>0.04365714206264765</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3611074299.766528</v>
+        <v>2529936906.827511</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09128897965337676</v>
+        <v>0.1222391413362373</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05645456763646855</v>
+        <v>0.04404869755465012</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>74</v>
+      </c>
+      <c r="J22" t="n">
+        <v>278</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1370297987.683441</v>
+        <v>1378323804.669839</v>
       </c>
       <c r="F23" t="n">
-        <v>0.182902147640419</v>
+        <v>0.1581197357191238</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04676957718921101</v>
+        <v>0.04695523732016969</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2742656554.879481</v>
+        <v>3276753472.352236</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1379672851521394</v>
+        <v>0.09193438173358666</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0301764381487983</v>
+        <v>0.03374461806089041</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>83</v>
+      </c>
+      <c r="J24" t="n">
+        <v>279</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1242677035.508223</v>
+        <v>1305693763.043199</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0778989363389061</v>
+        <v>0.1113914154828106</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02195189143944315</v>
+        <v>0.0285886320152673</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1016000367.297738</v>
+        <v>1047279661.959556</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0886733589752689</v>
+        <v>0.1188153232631736</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03318783344038846</v>
+        <v>0.03136685831511086</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4158330615.524983</v>
+        <v>2870148666.280257</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1057839494145121</v>
+        <v>0.1227594371093603</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01976611560605496</v>
+        <v>0.02205536782974169</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>115</v>
+      </c>
+      <c r="J27" t="n">
+        <v>279</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3738587952.153674</v>
+        <v>3845200541.868696</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1051937689535515</v>
+        <v>0.1275381307689961</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04418431059036233</v>
+        <v>0.03832794207159627</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>57</v>
+      </c>
+      <c r="J28" t="n">
+        <v>281</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1446,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5283196498.140985</v>
+        <v>4527152834.230631</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09161600999543482</v>
+        <v>0.148271517924461</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03380699728322249</v>
+        <v>0.03000833925003996</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>267</v>
+      </c>
+      <c r="J29" t="n">
+        <v>281</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1487,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2344264189.791969</v>
+        <v>2240128937.226016</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1010249456101142</v>
+        <v>0.1191093013196906</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03770413780582607</v>
+        <v>0.02811422532684211</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1522,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1500301722.892813</v>
+        <v>1399533830.679426</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1101276782361694</v>
+        <v>0.1056425426950306</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03516977906004336</v>
+        <v>0.03681423871095864</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1557,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1621408063.143449</v>
+        <v>1840092487.672472</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07370532686200766</v>
+        <v>0.07674052036206856</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02909152597088784</v>
+        <v>0.0244877496894921</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1592,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2476160467.836417</v>
+        <v>3083587412.265494</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2034799569831927</v>
+        <v>0.1997555760559221</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0416600626567156</v>
+        <v>0.03807310769389765</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1627,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>988463332.0182196</v>
+        <v>1095865827.8206</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07832479503948214</v>
+        <v>0.07745544396205073</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01804214054924404</v>
+        <v>0.02648448122329736</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1656,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1206398048.111129</v>
+        <v>1155276257.517345</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08415027988999739</v>
+        <v>0.09295047641402372</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03533676921744834</v>
+        <v>0.03756450220935585</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2841642814.009408</v>
+        <v>2376051320.517861</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1412892225560833</v>
+        <v>0.1610087005180032</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01961287587552137</v>
+        <v>0.02836891451480904</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2162282751.451808</v>
+        <v>2460131761.295337</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07622514243179926</v>
+        <v>0.0746038003460615</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04243095983179484</v>
+        <v>0.04028952519551626</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1940421919.151777</v>
+        <v>1909673637.509565</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1181016941564048</v>
+        <v>0.08760159842091994</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02496869275896585</v>
+        <v>0.02905243364908406</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1970361364.854605</v>
+        <v>1420366044.050045</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1262022298338932</v>
+        <v>0.19040357862079</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03035703497900223</v>
+        <v>0.02523934572523413</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1837,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1571474864.555476</v>
+        <v>1300278044.851125</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1537823150144749</v>
+        <v>0.1437071630520602</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05194319172818475</v>
+        <v>0.05157640261441743</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2541337778.318015</v>
+        <v>2642993584.283965</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1385338598355404</v>
+        <v>0.1003488389788209</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0307871964110867</v>
+        <v>0.03902438204717041</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1901,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3231495700.635533</v>
+        <v>3717049419.78611</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1113043908975941</v>
+        <v>0.1064002411042566</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04554075432647935</v>
+        <v>0.03618847929900817</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>117</v>
+      </c>
+      <c r="J42" t="n">
+        <v>281</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1936,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1936467671.304198</v>
+        <v>2943598347.571859</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1264684202367159</v>
+        <v>0.1943997690005867</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02270297354903019</v>
+        <v>0.0199111521081476</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1971,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1446281344.901904</v>
+        <v>1572078699.827059</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06664433940510844</v>
+        <v>0.08592992292206979</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03493054339190555</v>
+        <v>0.03611715541557174</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2006,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2318220095.727972</v>
+        <v>2146185314.550755</v>
       </c>
       <c r="F45" t="n">
-        <v>0.132388361682337</v>
+        <v>0.1381544688885926</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04002227991118222</v>
+        <v>0.03901996705569101</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2047,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5451451060.339205</v>
+        <v>3836583093.462278</v>
       </c>
       <c r="F46" t="n">
-        <v>0.15069578767664</v>
+        <v>0.1700220793277496</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04098626587861938</v>
+        <v>0.04989433150514958</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>165</v>
+      </c>
+      <c r="J46" t="n">
+        <v>280</v>
+      </c>
+      <c r="K46" t="n">
+        <v>91.01639028736069</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2078,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3357556865.524806</v>
+        <v>4242741447.078932</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1791231885361245</v>
+        <v>0.1485800046164042</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04577296857020331</v>
+        <v>0.05914672541564491</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>126</v>
+      </c>
+      <c r="J47" t="n">
+        <v>281</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2113,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3316148207.30749</v>
+        <v>3289051643.739232</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08628058194284764</v>
+        <v>0.0836290898817362</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02546178224874334</v>
+        <v>0.02718004182398164</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>140</v>
+      </c>
+      <c r="J48" t="n">
+        <v>280</v>
+      </c>
+      <c r="K48" t="n">
+        <v>71.18627315199063</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1512106435.128649</v>
+        <v>1792719959.928701</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1791697070739734</v>
+        <v>0.1298841783939321</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02790903818653512</v>
+        <v>0.03199841597258247</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2185,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2791238736.834408</v>
+        <v>3038015160.758634</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1172099271255763</v>
+        <v>0.1728791838411663</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03505124454534451</v>
+        <v>0.04551608542364977</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>90</v>
+      </c>
+      <c r="J50" t="n">
+        <v>279</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2226,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1308261572.23595</v>
+        <v>1170450818.347396</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1941606539155107</v>
+        <v>0.1377985073735619</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05222728197820729</v>
+        <v>0.03273579142793619</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2255,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3339306525.029856</v>
+        <v>4592554294.648604</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09651176877200374</v>
+        <v>0.1310969304413538</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0516620258715532</v>
+        <v>0.03779087488493552</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>176</v>
+      </c>
+      <c r="J52" t="n">
+        <v>281</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2290,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3426197309.709089</v>
+        <v>2359391968.01198</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1970199762702701</v>
+        <v>0.200736326243403</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02511106850287555</v>
+        <v>0.03149492103833965</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>39</v>
+      </c>
+      <c r="J53" t="n">
+        <v>273</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2325,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4688441159.858658</v>
+        <v>3315073666.747542</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1343410002260647</v>
+        <v>0.1476167154063826</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04235670433970794</v>
+        <v>0.03605701348533385</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>148</v>
+      </c>
+      <c r="J54" t="n">
+        <v>281</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2360,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4516250971.728964</v>
+        <v>4884337152.401674</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1852918468720881</v>
+        <v>0.1675179031098713</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03008293238361419</v>
+        <v>0.02671886448889585</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>127</v>
+      </c>
+      <c r="J55" t="n">
+        <v>281</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2395,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1357031141.531834</v>
+        <v>1310786683.474349</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1414829302750454</v>
+        <v>0.1502160370126319</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05352443168527016</v>
+        <v>0.05538447032581859</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2430,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3982879393.578131</v>
+        <v>3980040021.313142</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1525137261704179</v>
+        <v>0.1648255756742499</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01830436071832896</v>
+        <v>0.02515973312635944</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>114</v>
+      </c>
+      <c r="J57" t="n">
+        <v>280</v>
+      </c>
+      <c r="K57" t="n">
+        <v>90.13397846929212</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2473,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1389746323.884211</v>
+        <v>1236877946.474988</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1999281411403841</v>
+        <v>0.154083468991103</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03977300950926534</v>
+        <v>0.03778930020524257</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2508,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3321230473.074969</v>
+        <v>5136021489.55688</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1289025993286421</v>
+        <v>0.08561316312428875</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03091900635470507</v>
+        <v>0.0436443687419638</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>135</v>
+      </c>
+      <c r="J59" t="n">
+        <v>281</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2537,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2299505993.316682</v>
+        <v>3647030031.300715</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1400399271215597</v>
+        <v>0.1567092391415147</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0241705180649961</v>
+        <v>0.02516586970432293</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>45</v>
+      </c>
+      <c r="J60" t="n">
+        <v>281</v>
+      </c>
+      <c r="K60" t="n">
+        <v>95.0208016751138</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2574,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2475179566.450205</v>
+        <v>3325223580.143526</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1490012375678254</v>
+        <v>0.146179747415725</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02732012820235384</v>
+        <v>0.0239885308645894</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2609,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1386897810.600759</v>
+        <v>1951633490.534229</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1413374738850612</v>
+        <v>0.1858416381001126</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04073066893422155</v>
+        <v>0.03310265118374916</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2650,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3962408966.808077</v>
+        <v>4012945244.498668</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09860012742516085</v>
+        <v>0.09534709045292128</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03652673360593655</v>
+        <v>0.03624185784870483</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>136</v>
+      </c>
+      <c r="J63" t="n">
+        <v>281</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2679,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3718501898.906789</v>
+        <v>4895947843.541539</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1429517256674324</v>
+        <v>0.1846200845111504</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02402860252243363</v>
+        <v>0.02690075226518427</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>138</v>
+      </c>
+      <c r="J64" t="n">
+        <v>280</v>
+      </c>
+      <c r="K64" t="n">
+        <v>88.68053523269663</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2716,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3990012844.710753</v>
+        <v>4594055429.636465</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1498820511719761</v>
+        <v>0.1531224683653216</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02414328689652285</v>
+        <v>0.02813041089470785</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>225</v>
+      </c>
+      <c r="J65" t="n">
+        <v>281</v>
+      </c>
+      <c r="K65" t="n">
+        <v>91.65924200819191</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2759,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4601364599.374902</v>
+        <v>4464127045.94404</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1449972986219541</v>
+        <v>0.1192067933495539</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03772528112139135</v>
+        <v>0.03881836918510433</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>139</v>
+      </c>
+      <c r="J66" t="n">
+        <v>280</v>
+      </c>
+      <c r="K66" t="n">
+        <v>83.12905308588486</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2796,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2820148743.853722</v>
+        <v>2484538446.58722</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07639775794308264</v>
+        <v>0.06692741276916857</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04431400024133454</v>
+        <v>0.03875925284268655</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2825,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4371421869.697252</v>
+        <v>5010433780.997157</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1144004103655626</v>
+        <v>0.1188562972491182</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05087840663246818</v>
+        <v>0.03437867568204774</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>146</v>
+      </c>
+      <c r="J68" t="n">
+        <v>280</v>
+      </c>
+      <c r="K68" t="n">
+        <v>90.95812536817432</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2418707841.776361</v>
+        <v>1943390541.986524</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1161331285372659</v>
+        <v>0.1797489938246998</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0460417775833656</v>
+        <v>0.04609442373282657</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2903,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3473536970.087055</v>
+        <v>2983626477.696501</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09699861107519299</v>
+        <v>0.1031358207255403</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03521509356710651</v>
+        <v>0.03461187509750595</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>41</v>
+      </c>
+      <c r="J70" t="n">
+        <v>280</v>
+      </c>
+      <c r="K70" t="n">
+        <v>53.21286944855172</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4270167107.485895</v>
+        <v>3412297177.132976</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1553479686952609</v>
+        <v>0.1802087797951899</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02954893413212818</v>
+        <v>0.02945990248771632</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>211</v>
+      </c>
+      <c r="J71" t="n">
+        <v>280</v>
+      </c>
+      <c r="K71" t="n">
+        <v>71.50883015626761</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1979176258.434143</v>
+        <v>2016272665.197642</v>
       </c>
       <c r="F72" t="n">
-        <v>0.105799144773285</v>
+        <v>0.09386663137234041</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03977338646041391</v>
+        <v>0.05298035312762044</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3434481061.307158</v>
+        <v>2195070982.479263</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07896142344643974</v>
+        <v>0.0974168637011598</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04271151650169969</v>
+        <v>0.05201724572711294</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2882111139.605002</v>
+        <v>3217281373.076716</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1816795041028403</v>
+        <v>0.1587130010395016</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0314975506463824</v>
+        <v>0.0301664035340834</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2056085856.072921</v>
+        <v>2021823769.294901</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1086571118451513</v>
+        <v>0.1282600948104935</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02549057383349925</v>
+        <v>0.02732230938372425</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3117,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4835887832.20208</v>
+        <v>3645821908.388857</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1052435178815599</v>
+        <v>0.1067456134584021</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02775802662099626</v>
+        <v>0.02609276252326082</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>132</v>
+      </c>
+      <c r="J76" t="n">
+        <v>280</v>
+      </c>
+      <c r="K76" t="n">
+        <v>74.81144712519382</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1404704406.183592</v>
+        <v>1580196624.775095</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1378796472499063</v>
+        <v>0.1828823678234556</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03133723401956968</v>
+        <v>0.03037864167536063</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3356552426.719434</v>
+        <v>3916142649.473145</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1364358138156165</v>
+        <v>0.1300879559572339</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04847753847238141</v>
+        <v>0.03791539154129594</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>141</v>
+      </c>
+      <c r="J78" t="n">
+        <v>280</v>
+      </c>
+      <c r="K78" t="n">
+        <v>91.02310807720073</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1900812528.155323</v>
+        <v>1876093770.152866</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1421063182064328</v>
+        <v>0.1473639355026656</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03168271711067641</v>
+        <v>0.02719871211992459</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4113697188.265309</v>
+        <v>4411670261.526843</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1104202154413634</v>
+        <v>0.1110953610149611</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02927302987638447</v>
+        <v>0.02772364662803571</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>137</v>
+      </c>
+      <c r="J80" t="n">
+        <v>281</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3491283637.147185</v>
+        <v>3570180130.313967</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08753013132525447</v>
+        <v>0.09958580701414793</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02188511533970812</v>
+        <v>0.02166788034595814</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>129</v>
+      </c>
+      <c r="J81" t="n">
+        <v>280</v>
+      </c>
+      <c r="K81" t="n">
+        <v>68.5465537557792</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3327,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4702349790.053654</v>
+        <v>4992284836.846879</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1432046941612337</v>
+        <v>0.1729727902473753</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01820815073504106</v>
+        <v>0.02707992279029339</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>208</v>
+      </c>
+      <c r="J82" t="n">
+        <v>281</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1986960697.149962</v>
+        <v>1524566159.11338</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1110026257070032</v>
+        <v>0.1172947899587223</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03140655518012053</v>
+        <v>0.04222361434715396</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2408349933.048351</v>
+        <v>2484143161.697875</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09342223267052321</v>
+        <v>0.07346131519338606</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03258820118845328</v>
+        <v>0.04221769522909762</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3438,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3030258692.203863</v>
+        <v>2341819935.466663</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1428615892530066</v>
+        <v>0.1339995029887625</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05189177132232797</v>
+        <v>0.04488592519709973</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>38</v>
+      </c>
+      <c r="J85" t="n">
+        <v>273</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2596790720.134252</v>
+        <v>2452806502.985096</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1208607505477835</v>
+        <v>0.1105275604593429</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0193859730390315</v>
+        <v>0.02221215500920889</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1079732828.722318</v>
+        <v>1042028702.563533</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1557135217893763</v>
+        <v>0.1764892189015106</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03148932205127848</v>
+        <v>0.03667569321616491</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2505846473.619334</v>
+        <v>3616835535.555591</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1310677801014573</v>
+        <v>0.1458408900664772</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03734489268570808</v>
+        <v>0.02614928321755456</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>40</v>
+      </c>
+      <c r="J88" t="n">
+        <v>280</v>
+      </c>
+      <c r="K88" t="n">
+        <v>87.45375343459135</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2537094895.243221</v>
+        <v>2570317340.660515</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1008281105007164</v>
+        <v>0.1300800047270883</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03677013111762311</v>
+        <v>0.03727617509721887</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1475681287.475506</v>
+        <v>1447369957.111668</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1166694971661527</v>
+        <v>0.1240470015713855</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05502184617609295</v>
+        <v>0.04698087241045115</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1811384467.427372</v>
+        <v>1367889372.60257</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1230054276997286</v>
+        <v>0.1358433304031497</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0592396412777414</v>
+        <v>0.06201072662624961</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1855166636.240352</v>
+        <v>2777118163.960044</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08170606188454567</v>
+        <v>0.08813893983948948</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0290213212982012</v>
+        <v>0.03833522294113412</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3720,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4353646276.816312</v>
+        <v>4276049223.663803</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1387656406918995</v>
+        <v>0.1106431459065534</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0425115105795276</v>
+        <v>0.0503708630258079</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>122</v>
+      </c>
+      <c r="J93" t="n">
+        <v>281</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2421920762.188921</v>
+        <v>1519929704.493786</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1094096969339612</v>
+        <v>0.1183940375677678</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03049135624027627</v>
+        <v>0.02924192625154106</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2018102665.127716</v>
+        <v>3014462795.962458</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09042663611568028</v>
+        <v>0.08409733180883121</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04258263823575351</v>
+        <v>0.04321800076146655</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2363933088.325976</v>
+        <v>2323608760.540534</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1199912443959558</v>
+        <v>0.1094557109994771</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03651238489127152</v>
+        <v>0.03516070453794862</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3523118107.750131</v>
+        <v>5276513883.41711</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1406554932940359</v>
+        <v>0.1166152713071932</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02875031811574535</v>
+        <v>0.02007412138097297</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>140</v>
+      </c>
+      <c r="J97" t="n">
+        <v>280</v>
+      </c>
+      <c r="K97" t="n">
+        <v>91.04899594293545</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3620900461.40474</v>
+        <v>3308942392.755813</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1113313179557698</v>
+        <v>0.08532247094902506</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03030221812301286</v>
+        <v>0.02000665618833317</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>67</v>
+      </c>
+      <c r="J98" t="n">
+        <v>278</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2086290090.864366</v>
+        <v>2108553289.852178</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1093817399165972</v>
+        <v>0.1290720622093315</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02513048231030822</v>
+        <v>0.03536881212312577</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3552306394.346672</v>
+        <v>4006837724.676909</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1665219884407258</v>
+        <v>0.1501374047823227</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02512373155124193</v>
+        <v>0.02130556507578628</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>120</v>
+      </c>
+      <c r="J100" t="n">
+        <v>280</v>
+      </c>
+      <c r="K100" t="n">
+        <v>90.8219314742343</v>
       </c>
     </row>
     <row r="101">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3515415014.203355</v>
+        <v>3614471525.75335</v>
       </c>
       <c r="F101" t="n">
-        <v>0.215585985710478</v>
+        <v>0.1593452159751955</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04696138940747721</v>
+        <v>0.03949012215569567</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>25</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="n">
+        <v>93.19328153788034</v>
       </c>
     </row>
   </sheetData>
